--- a/router/exportFiles/bill_info.xlsx
+++ b/router/exportFiles/bill_info.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,73 +403,99 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>10000001</v>
+        <v>10000003</v>
       </c>
       <c r="B2">
-        <v>91.02</v>
+        <v>113.88</v>
       </c>
       <c r="C2" s="1">
-        <v>43830.666666666664</v>
+        <v>43833.666666666664</v>
       </c>
       <c r="D2">
-        <v>1607400001</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>1607400003</v>
+      </c>
+      <c r="E2" t="str">
+        <v>支付失败</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>银行卡余额不足</v>
+      </c>
+      <c r="G2" t="str">
+        <v>银联支付</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>10000002</v>
+        <v>10000013</v>
       </c>
       <c r="B3">
-        <v>151.72</v>
+        <v>229.18</v>
       </c>
       <c r="C3" s="1">
-        <v>43830.666666666664</v>
+        <v>43843.666666666664</v>
       </c>
       <c r="D3">
-        <v>1607400002</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>1607400013</v>
+      </c>
+      <c r="E3" t="str">
+        <v>支付失败</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>银行卡余额不足</v>
+      </c>
+      <c r="G3" t="str">
+        <v>支付宝支付</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>12345678</v>
+        <v>10000033</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>295.88</v>
       </c>
       <c r="C4" s="1">
-        <v>43566.666666666664</v>
+        <v>43863.666666666664</v>
       </c>
       <c r="D4">
-        <v>12345678</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>1607400033</v>
+      </c>
+      <c r="E4" t="str">
+        <v>支付失败</v>
+      </c>
+      <c r="F4" t="str">
+        <v>银行卡余额不足</v>
+      </c>
+      <c r="G4" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>10000068</v>
+      </c>
+      <c r="B5">
+        <v>6.46</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43898.666666666664</v>
+      </c>
+      <c r="D5">
+        <v>1607400068</v>
+      </c>
+      <c r="E5" t="str">
+        <v>支付失败</v>
+      </c>
+      <c r="F5" t="str">
+        <v>银行卡余额不足</v>
+      </c>
+      <c r="G5" t="str">
+        <v>微信支付</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/bill_info.xlsx
+++ b/router/exportFiles/bill_info.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,68 +400,62 @@
       <c r="F1" t="str">
         <v>失败原因</v>
       </c>
+      <c r="G1" t="str">
+        <v>支付渠道</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
+        <v>10000001</v>
+      </c>
+      <c r="B2">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1607400001</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10000002</v>
+      </c>
+      <c r="B3">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1607400002</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
         <v>10000003</v>
       </c>
-      <c r="B2">
-        <v>113.88</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43833.666666666664</v>
-      </c>
-      <c r="D2">
+      <c r="B4">
+        <v>414</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D4" t="str">
         <v>1607400003</v>
       </c>
-      <c r="E2" t="str">
-        <v>支付失败</v>
-      </c>
-      <c r="F2" t="str">
-        <v>银行卡余额不足</v>
-      </c>
-      <c r="G2" t="str">
-        <v>银联支付</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>10000013</v>
-      </c>
-      <c r="B3">
-        <v>229.18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43843.666666666664</v>
-      </c>
-      <c r="D3">
-        <v>1607400013</v>
-      </c>
-      <c r="E3" t="str">
-        <v>支付失败</v>
-      </c>
-      <c r="F3" t="str">
-        <v>银行卡余额不足</v>
-      </c>
-      <c r="G3" t="str">
-        <v>支付宝支付</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>10000033</v>
-      </c>
-      <c r="B4">
-        <v>295.88</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43863.666666666664</v>
-      </c>
-      <c r="D4">
-        <v>1607400033</v>
-      </c>
       <c r="E4" t="str">
-        <v>支付失败</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>银行卡余额不足</v>
@@ -471,31 +465,1969 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
+        <v>10000004</v>
+      </c>
+      <c r="B5">
+        <v>414</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1607400004</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>10000005</v>
+      </c>
+      <c r="B6">
+        <v>414</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1607400005</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>10000006</v>
+      </c>
+      <c r="B7">
+        <v>414</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1607400006</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>10000007</v>
+      </c>
+      <c r="B8">
+        <v>276</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1607400007</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>10000008</v>
+      </c>
+      <c r="B9">
+        <v>414</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1607400008</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>10000009</v>
+      </c>
+      <c r="B10">
+        <v>414</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1607400009</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10000010</v>
+      </c>
+      <c r="B11">
+        <v>414</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1607400010</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10000011</v>
+      </c>
+      <c r="B12">
+        <v>414</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1607400001</v>
+      </c>
+      <c r="E12" t="str">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>10000012</v>
+      </c>
+      <c r="B13">
+        <v>276</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1607400012</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>10000013</v>
+      </c>
+      <c r="B14">
+        <v>564</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1607400013</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>银行卡余额不足</v>
+      </c>
+      <c r="G14" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>10000014</v>
+      </c>
+      <c r="B15">
+        <v>564</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1607400014</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>10000015</v>
+      </c>
+      <c r="B16">
+        <v>564</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1607400015</v>
+      </c>
+      <c r="E16" t="str">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>10000016</v>
+      </c>
+      <c r="B17">
+        <v>564</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1607400016</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>10000017</v>
+      </c>
+      <c r="B18">
+        <v>376</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1607400017</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>10000018</v>
+      </c>
+      <c r="B19">
+        <v>564</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1607400018</v>
+      </c>
+      <c r="E19" t="str">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>10000019</v>
+      </c>
+      <c r="B20">
+        <v>564</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1607400019</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>10000020</v>
+      </c>
+      <c r="B21">
+        <v>564</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1607400020</v>
+      </c>
+      <c r="E21" t="str">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>10000021</v>
+      </c>
+      <c r="B22">
+        <v>564</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1607400021</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>10000022</v>
+      </c>
+      <c r="B23">
+        <v>376</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1607400022</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>10000023</v>
+      </c>
+      <c r="B24">
+        <v>600</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1607400023</v>
+      </c>
+      <c r="E24" t="str">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>10000024</v>
+      </c>
+      <c r="B25">
+        <v>600</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1607400024</v>
+      </c>
+      <c r="E25" t="str">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>10000025</v>
+      </c>
+      <c r="B26">
+        <v>600</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1607400025</v>
+      </c>
+      <c r="E26" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>10000026</v>
+      </c>
+      <c r="B27">
+        <v>600</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1607400026</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>10000027</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1607400027</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>10000028</v>
+      </c>
+      <c r="B29">
+        <v>600</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1607400028</v>
+      </c>
+      <c r="E29" t="str">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>10000029</v>
+      </c>
+      <c r="B30">
+        <v>600</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1607400029</v>
+      </c>
+      <c r="E30" t="str">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>10000030</v>
+      </c>
+      <c r="B31">
+        <v>600</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1607400030</v>
+      </c>
+      <c r="E31" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10000031</v>
+      </c>
+      <c r="B32">
+        <v>600</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1607400031</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>10000032</v>
+      </c>
+      <c r="B33">
+        <v>400</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1607400032</v>
+      </c>
+      <c r="E33" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>10000033</v>
+      </c>
+      <c r="B34">
+        <v>227.07</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D34" t="str">
+        <v>1607400033</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <v>银行卡余额不足</v>
+      </c>
+      <c r="G34" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>10000034</v>
+      </c>
+      <c r="B35">
+        <v>2400</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1607400034</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>10000035</v>
+      </c>
+      <c r="B36">
+        <v>3572.94</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1607400035</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>10000036</v>
+      </c>
+      <c r="B37">
+        <v>119.86</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1607400036</v>
+      </c>
+      <c r="E37" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>10000037</v>
+      </c>
+      <c r="B38">
+        <v>113.17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1607400037</v>
+      </c>
+      <c r="E38" t="str">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>10000038</v>
+      </c>
+      <c r="B39">
+        <v>225.84</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1607400038</v>
+      </c>
+      <c r="E39" t="str">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>10000039</v>
+      </c>
+      <c r="B40">
+        <v>145.55</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1607400039</v>
+      </c>
+      <c r="E40" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>10000040</v>
+      </c>
+      <c r="B41">
+        <v>156.4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1607400040</v>
+      </c>
+      <c r="E41" t="str">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>10000041</v>
+      </c>
+      <c r="B42">
+        <v>204.48</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1607400041</v>
+      </c>
+      <c r="E42" t="str">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>10000042</v>
+      </c>
+      <c r="B43">
+        <v>146.21</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1607400042</v>
+      </c>
+      <c r="E43" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>10000043</v>
+      </c>
+      <c r="B44">
+        <v>208.41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1607400043</v>
+      </c>
+      <c r="E44" t="str">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>10000044</v>
+      </c>
+      <c r="B45">
+        <v>181.23</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D45" t="str">
+        <v>1607400044</v>
+      </c>
+      <c r="E45" t="str">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>10000045</v>
+      </c>
+      <c r="B46">
+        <v>115.04</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D46" t="str">
+        <v>1607400045</v>
+      </c>
+      <c r="E46" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>10000046</v>
+      </c>
+      <c r="B47">
+        <v>147.11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D47" t="str">
+        <v>1607400046</v>
+      </c>
+      <c r="E47" t="str">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>10000047</v>
+      </c>
+      <c r="B48">
+        <v>120.24</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D48" t="str">
+        <v>1607400047</v>
+      </c>
+      <c r="E48" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>10000048</v>
+      </c>
+      <c r="B49">
+        <v>163.2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D49" t="str">
+        <v>1607400048</v>
+      </c>
+      <c r="E49" t="str">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>10000049</v>
+      </c>
+      <c r="B50">
+        <v>166.77</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D50" t="str">
+        <v>1607400049</v>
+      </c>
+      <c r="E50" t="str">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>10000050</v>
+      </c>
+      <c r="B51">
+        <v>207.53</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1607400050</v>
+      </c>
+      <c r="E51" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>10000051</v>
+      </c>
+      <c r="B52">
+        <v>174.85</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1607400051</v>
+      </c>
+      <c r="E52" t="str">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>10000052</v>
+      </c>
+      <c r="B53">
+        <v>139.59</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D53" t="str">
+        <v>1607400052</v>
+      </c>
+      <c r="E53" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>10000053</v>
+      </c>
+      <c r="B54">
+        <v>180.14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1607400053</v>
+      </c>
+      <c r="E54" t="str">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>10000054</v>
+      </c>
+      <c r="B55">
+        <v>192.7</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D55" t="str">
+        <v>1607400054</v>
+      </c>
+      <c r="E55" t="str">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>10000055</v>
+      </c>
+      <c r="B56">
+        <v>166.44</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D56" t="str">
+        <v>1607400055</v>
+      </c>
+      <c r="E56" t="str">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>10000056</v>
+      </c>
+      <c r="B57">
+        <v>198.17</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D57" t="str">
+        <v>1607400056</v>
+      </c>
+      <c r="E57" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>10000057</v>
+      </c>
+      <c r="B58">
+        <v>83.27</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1607400057</v>
+      </c>
+      <c r="E58" t="str">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>10000058</v>
+      </c>
+      <c r="B59">
+        <v>103.27</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D59" t="str">
+        <v>1607400058</v>
+      </c>
+      <c r="E59" t="str">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>10000059</v>
+      </c>
+      <c r="B60">
+        <v>240.83</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D60" t="str">
+        <v>1607400059</v>
+      </c>
+      <c r="E60" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>10000060</v>
+      </c>
+      <c r="B61">
+        <v>150.04</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D61" t="str">
+        <v>1607400060</v>
+      </c>
+      <c r="E61" t="str">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>10000061</v>
+      </c>
+      <c r="B62">
+        <v>123.41</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D62" t="str">
+        <v>1607400061</v>
+      </c>
+      <c r="E62" t="str">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>10000062</v>
+      </c>
+      <c r="B63">
+        <v>114.37</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D63" t="str">
+        <v>1607400062</v>
+      </c>
+      <c r="E63" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>10000063</v>
+      </c>
+      <c r="B64">
+        <v>155.22</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D64" t="str">
+        <v>1607400063</v>
+      </c>
+      <c r="E64" t="str">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>10000064</v>
+      </c>
+      <c r="B65">
+        <v>188.4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D65" t="str">
+        <v>1607400064</v>
+      </c>
+      <c r="E65" t="str">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>10000065</v>
+      </c>
+      <c r="B66">
+        <v>186.15</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D66" t="str">
+        <v>1607400065</v>
+      </c>
+      <c r="E66" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>10000066</v>
+      </c>
+      <c r="B67">
+        <v>151.33</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D67" t="str">
+        <v>1607400066</v>
+      </c>
+      <c r="E67" t="str">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>10000067</v>
+      </c>
+      <c r="B68">
+        <v>136.27</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D68" t="str">
+        <v>1607400067</v>
+      </c>
+      <c r="E68" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
         <v>10000068</v>
       </c>
-      <c r="B5">
-        <v>6.46</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43898.666666666664</v>
-      </c>
-      <c r="D5">
+      <c r="B69">
+        <v>146.76</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D69" t="str">
         <v>1607400068</v>
       </c>
-      <c r="E5" t="str">
-        <v>支付失败</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+      <c r="F69" t="str">
         <v>银行卡余额不足</v>
       </c>
-      <c r="G5" t="str">
-        <v>微信支付</v>
+      <c r="G69" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>10000069</v>
+      </c>
+      <c r="B70">
+        <v>110.36</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D70" t="str">
+        <v>1607400069</v>
+      </c>
+      <c r="E70" t="str">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>10000070</v>
+      </c>
+      <c r="B71">
+        <v>143.88</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D71" t="str">
+        <v>1607400070</v>
+      </c>
+      <c r="E71" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>10000071</v>
+      </c>
+      <c r="B72">
+        <v>116.37</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D72" t="str">
+        <v>1607400071</v>
+      </c>
+      <c r="E72" t="str">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>10000072</v>
+      </c>
+      <c r="B73">
+        <v>143.93</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D73" t="str">
+        <v>1607400072</v>
+      </c>
+      <c r="E73" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>10000073</v>
+      </c>
+      <c r="B74">
+        <v>119.76</v>
+      </c>
+      <c r="C74" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D74" t="str">
+        <v>1607400073</v>
+      </c>
+      <c r="E74" t="str">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>10000074</v>
+      </c>
+      <c r="B75">
+        <v>230.67</v>
+      </c>
+      <c r="C75" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D75" t="str">
+        <v>1607400074</v>
+      </c>
+      <c r="E75" t="str">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>10000075</v>
+      </c>
+      <c r="B76">
+        <v>218.39</v>
+      </c>
+      <c r="C76" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D76" t="str">
+        <v>1607400075</v>
+      </c>
+      <c r="E76" t="str">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>10000076</v>
+      </c>
+      <c r="B77">
+        <v>165.07</v>
+      </c>
+      <c r="C77" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D77" t="str">
+        <v>1607400076</v>
+      </c>
+      <c r="E77" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>10000077</v>
+      </c>
+      <c r="B78">
+        <v>106.01</v>
+      </c>
+      <c r="C78" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D78" t="str">
+        <v>1607400077</v>
+      </c>
+      <c r="E78" t="str">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>10000078</v>
+      </c>
+      <c r="B79">
+        <v>181.97</v>
+      </c>
+      <c r="C79" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D79" t="str">
+        <v>1607400078</v>
+      </c>
+      <c r="E79" t="str">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>10000079</v>
+      </c>
+      <c r="B80">
+        <v>96.37</v>
+      </c>
+      <c r="C80" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D80" t="str">
+        <v>1607400079</v>
+      </c>
+      <c r="E80" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>10000080</v>
+      </c>
+      <c r="B81">
+        <v>142.19</v>
+      </c>
+      <c r="C81" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D81" t="str">
+        <v>1607400080</v>
+      </c>
+      <c r="E81" t="str">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>10000081</v>
+      </c>
+      <c r="B82">
+        <v>169.2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D82" t="str">
+        <v>1607400081</v>
+      </c>
+      <c r="E82" t="str">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>10000082</v>
+      </c>
+      <c r="B83">
+        <v>88.16</v>
+      </c>
+      <c r="C83" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D83" t="str">
+        <v>1607400082</v>
+      </c>
+      <c r="E83" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>10000083</v>
+      </c>
+      <c r="B84">
+        <v>211.58</v>
+      </c>
+      <c r="C84" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D84" t="str">
+        <v>1607400083</v>
+      </c>
+      <c r="E84" t="str">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>10000084</v>
+      </c>
+      <c r="B85">
+        <v>243.58</v>
+      </c>
+      <c r="C85" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D85" t="str">
+        <v>1607400084</v>
+      </c>
+      <c r="E85" t="str">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>10000085</v>
+      </c>
+      <c r="B86">
+        <v>146.43</v>
+      </c>
+      <c r="C86" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D86" t="str">
+        <v>1607400085</v>
+      </c>
+      <c r="E86" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>10000086</v>
+      </c>
+      <c r="B87">
+        <v>223.2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D87" t="str">
+        <v>1607400086</v>
+      </c>
+      <c r="E87" t="str">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>10000087</v>
+      </c>
+      <c r="B88">
+        <v>115.21</v>
+      </c>
+      <c r="C88" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D88" t="str">
+        <v>1607400087</v>
+      </c>
+      <c r="E88" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>10000088</v>
+      </c>
+      <c r="B89">
+        <v>169.4</v>
+      </c>
+      <c r="C89" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D89" t="str">
+        <v>1607400088</v>
+      </c>
+      <c r="E89" t="str">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>10000089</v>
+      </c>
+      <c r="B90">
+        <v>129.14</v>
+      </c>
+      <c r="C90" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D90" t="str">
+        <v>1607400089</v>
+      </c>
+      <c r="E90" t="str">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>10000090</v>
+      </c>
+      <c r="B91">
+        <v>196.43</v>
+      </c>
+      <c r="C91" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D91" t="str">
+        <v>1607400090</v>
+      </c>
+      <c r="E91" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>10000091</v>
+      </c>
+      <c r="B92">
+        <v>207.87</v>
+      </c>
+      <c r="C92" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D92" t="str">
+        <v>1607400091</v>
+      </c>
+      <c r="E92" t="str">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>10000092</v>
+      </c>
+      <c r="B93">
+        <v>111.79</v>
+      </c>
+      <c r="C93" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D93" t="str">
+        <v>1607400092</v>
+      </c>
+      <c r="E93" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>10000093</v>
+      </c>
+      <c r="B94">
+        <v>186.01</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D94" t="str">
+        <v>1607400093</v>
+      </c>
+      <c r="E94" t="str">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <v>支付宝支付</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>10000094</v>
+      </c>
+      <c r="B95">
+        <v>133.82</v>
+      </c>
+      <c r="C95" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D95" t="str">
+        <v>1607400094</v>
+      </c>
+      <c r="E95" t="str">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>10000095</v>
+      </c>
+      <c r="B96">
+        <v>107.6</v>
+      </c>
+      <c r="C96" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D96" t="str">
+        <v>1607400095</v>
+      </c>
+      <c r="E96" t="str">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>10000096</v>
+      </c>
+      <c r="B97">
+        <v>184.66</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D97" t="str">
+        <v>1607400096</v>
+      </c>
+      <c r="E97" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>10000097</v>
+      </c>
+      <c r="B98">
+        <v>101.18</v>
+      </c>
+      <c r="C98" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D98" t="str">
+        <v>1607400097</v>
+      </c>
+      <c r="E98" t="str">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <v>支付宝支付</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>10000098</v>
+      </c>
+      <c r="B99">
+        <v>265.04</v>
+      </c>
+      <c r="C99" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D99" t="str">
+        <v>1607400098</v>
+      </c>
+      <c r="E99" t="str">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str">
+        <v>银联支付</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>10000099</v>
+      </c>
+      <c r="B100">
+        <v>194.36</v>
+      </c>
+      <c r="C100" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D100" t="str">
+        <v>1607400099</v>
+      </c>
+      <c r="E100" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>10000100</v>
+      </c>
+      <c r="B101">
+        <v>164.52</v>
+      </c>
+      <c r="C101" s="1">
+        <v>43909.666666666664</v>
+      </c>
+      <c r="D101" t="str">
+        <v>1607400100</v>
+      </c>
+      <c r="E101" t="str">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <v>微信支付</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>10000101</v>
+      </c>
+      <c r="B102">
+        <v>14.3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>43888.666666666664</v>
+      </c>
+      <c r="D102" t="str">
+        <v>1607400001</v>
+      </c>
+      <c r="E102" t="str">
+        <v>3</v>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>10000102</v>
+      </c>
+      <c r="B103">
+        <v>34.7</v>
+      </c>
+      <c r="C103" s="1">
+        <v>43888.666666666664</v>
+      </c>
+      <c r="D103" t="str">
+        <v>1607400001</v>
+      </c>
+      <c r="E103" t="str">
+        <v>3</v>
+      </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>10000103</v>
+      </c>
+      <c r="B104">
+        <v>1500</v>
+      </c>
+      <c r="C104" s="1">
+        <v>43888.666666666664</v>
+      </c>
+      <c r="D104" t="str">
+        <v>1607400001</v>
+      </c>
+      <c r="E104" t="str">
+        <v>3</v>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>10000104</v>
+      </c>
+      <c r="B105">
+        <v>625.2</v>
+      </c>
+      <c r="C105" s="1">
+        <v>43888.666666666664</v>
+      </c>
+      <c r="D105" t="str">
+        <v>1607400001</v>
+      </c>
+      <c r="E105" t="str">
+        <v>3</v>
+      </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>10000105</v>
+      </c>
+      <c r="B106">
+        <v>318.5</v>
+      </c>
+      <c r="C106" s="1">
+        <v>43910.51440972222</v>
+      </c>
+      <c r="D106" t="str">
+        <v>1607400001</v>
+      </c>
+      <c r="E106" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>10000106</v>
+      </c>
+      <c r="B107">
+        <v>448.5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>43910.56657407407</v>
+      </c>
+      <c r="D107" t="str">
+        <v>1607400001</v>
+      </c>
+      <c r="E107" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G107"/>
   </ignoredErrors>
 </worksheet>
 </file>